--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D44A3D-DF0E-49FC-9124-3D460E0E0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27E5D2-AA13-4706-AF64-2C296FFFCC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>Part Number</t>
   </si>
@@ -292,13 +292,25 @@
     <t>https://www.digikey.com/en/products/detail/holy-stone-enterprise-co-ltd/C1210X105K101T/13279995</t>
   </si>
   <si>
-    <t>C1,C7</t>
-  </si>
-  <si>
     <t>399-17722-1-ND</t>
   </si>
   <si>
     <t>Wirewound Inductor 670mOhm 1210 (3225 Metric)</t>
+  </si>
+  <si>
+    <t>445-173162-1-ND</t>
+  </si>
+  <si>
+    <t>1 µF ±10% 100V Ceramic Capacitor X7R Radial</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/FG16X7R2A105KNT06/5811767</t>
+  </si>
+  <si>
+    <t>C1,C7,C8</t>
+  </si>
+  <si>
+    <t>C10</t>
   </si>
 </sst>
 </file>
@@ -902,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,237 +978,239 @@
         <v>7</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" ref="G2:G21" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G22" si="0">D2*E2</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19">
+        <f>D3*E3</f>
+        <v>0.73</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
         <v>2.56</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E5" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E6" s="21">
         <v>0.49</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="19">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E7" s="21">
         <v>0.3</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="19">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D8" s="20">
         <v>8</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E8" s="21">
         <v>1.91</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>15.28</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E9" s="21">
         <v>1.64</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2.27</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19">
-        <f>D9*E9</f>
-        <v>2.27</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
       </c>
       <c r="E10" s="21">
-        <v>0.52</v>
+        <v>2.27</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="19">
         <f>D10*E10</f>
-        <v>0.52</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>2.27</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -1208,297 +1222,316 @@
         <v>7</v>
       </c>
       <c r="G11" s="19">
+        <f>D11*E11</f>
+        <v>0.52</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="20">
-        <v>2</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="D13" s="20">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21">
         <v>0.35</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19">
-        <f>D12*E12</f>
-        <v>0.7</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="19">
+        <f>D13*E13</f>
+        <v>1.4</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>4</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="19">
         <v>4.59</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E15" s="19">
         <v>1.43</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B17" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>9</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="19">
         <v>0.39</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="0"/>
         <v>3.5100000000000002</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="24">
         <v>0.54</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="24">
         <v>1.35</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="13" t="s">
+    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>4</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="24">
         <v>0.26</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="21" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="24">
         <v>0.41</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H21" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+    <row r="22" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D22" s="27">
         <v>1</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E22" s="28">
         <v>0.97</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="F22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H22" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="6" t="s">
+    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="7">
-        <f>SUM(G2:G21)</f>
-        <v>59.989999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
+      <c r="G23" s="7">
+        <f>SUM(G2:G22)</f>
+        <v>61.419999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1513,13 +1546,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
@@ -1547,28 +1580,35 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F22" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F23" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EC06BA25-5BBF-4256-803F-A9FDB457E9B1}"/>
-    <hyperlink ref="H19" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
-    <hyperlink ref="H17" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{FEA59C81-A7B8-4225-9F47-3AFC30030BA9}"/>
-    <hyperlink ref="H14" r:id="rId5" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
-    <hyperlink ref="H15" r:id="rId6" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
-    <hyperlink ref="H16" r:id="rId7" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
-    <hyperlink ref="H20" r:id="rId8" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
-    <hyperlink ref="H8" r:id="rId9" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
-    <hyperlink ref="H21" r:id="rId10" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
-    <hyperlink ref="H18" r:id="rId11" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
-    <hyperlink ref="H4" r:id="rId13" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
-    <hyperlink ref="H6" r:id="rId14" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
-    <hyperlink ref="H3" r:id="rId15" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
-    <hyperlink ref="H5" r:id="rId16" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
-    <hyperlink ref="H9" r:id="rId17" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
-    <hyperlink ref="H11" r:id="rId18" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
-    <hyperlink ref="H12" r:id="rId19" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H20" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
+    <hyperlink ref="H18" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{FEA59C81-A7B8-4225-9F47-3AFC30030BA9}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
+    <hyperlink ref="H17" r:id="rId7" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
+    <hyperlink ref="H21" r:id="rId8" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
+    <hyperlink ref="H22" r:id="rId10" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
+    <hyperlink ref="H14" r:id="rId12" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
+    <hyperlink ref="H5" r:id="rId13" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
+    <hyperlink ref="H7" r:id="rId14" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
+    <hyperlink ref="H4" r:id="rId15" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
+    <hyperlink ref="H6" r:id="rId16" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
+    <hyperlink ref="H10" r:id="rId17" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
+    <hyperlink ref="H12" r:id="rId18" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
+    <hyperlink ref="H13" r:id="rId19" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H3" r:id="rId20" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27E5D2-AA13-4706-AF64-2C296FFFCC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0392D-E4C7-4609-8B95-D3EDA9272E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -136,15 +136,6 @@
     <t>https://www.digikey.com/en/products/detail/cui-devices/DS04-254-2-03BK-SMT/11310920</t>
   </si>
   <si>
-    <t>IRF1404ZSTRLPBFCT-ND</t>
-  </si>
-  <si>
-    <t>N-Channel 40 V 180A (Tc) 200W (Tc) Surface Mount D²PAK (TO-263AB)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/infineon-technologies/IRF1404ZSTRLPBF/1928315</t>
-  </si>
-  <si>
     <t>Connector Header Through Hole 5 position 0.100" (2.54mm)</t>
   </si>
   <si>
@@ -311,6 +302,15 @@
   </si>
   <si>
     <t>C10</t>
+  </si>
+  <si>
+    <t>IRFS3306TRLPBFCT-ND</t>
+  </si>
+  <si>
+    <t>N-Channel 60 V 120A (Tc) 230W (Tc) Surface Mount D2PAK</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/irfs3306pbf.pdf?fileId=5546d462533600a40153563682652165</t>
   </si>
 </sst>
 </file>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0.73</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>2.56</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
@@ -1044,10 +1044,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -1063,18 +1063,18 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="20">
         <v>1</v>
@@ -1090,18 +1090,18 @@
         <v>0.49</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="20">
         <v>2</v>
@@ -1117,34 +1117,34 @@
         <v>0.6</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D8" s="20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" s="21">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>15.28</v>
+        <v>10.32</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>1.64</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -1180,10 +1180,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
@@ -1199,18 +1199,18 @@
         <v>2.27</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
@@ -1251,18 +1251,18 @@
         <v>0.52</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="20">
         <v>4</v>
@@ -1278,7 +1278,7 @@
         <v>1.4</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>18.36</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
@@ -1313,10 +1313,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -1332,18 +1332,18 @@
         <v>1.43</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -1359,18 +1359,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="12">
         <v>9</v>
@@ -1386,7 +1386,7 @@
         <v>3.5100000000000002</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>23</v>
@@ -1440,7 +1440,7 @@
         <v>2.7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13">
         <v>4</v>
@@ -1492,7 +1492,7 @@
         <v>1.64</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -1500,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>19</v>
@@ -1519,7 +1519,7 @@
         <v>0.97</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="G23" s="7">
         <f>SUM(G2:G22)</f>
-        <v>61.419999999999995</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1592,23 +1592,23 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EC06BA25-5BBF-4256-803F-A9FDB457E9B1}"/>
     <hyperlink ref="H20" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
     <hyperlink ref="H18" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{FEA59C81-A7B8-4225-9F47-3AFC30030BA9}"/>
-    <hyperlink ref="H15" r:id="rId5" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
-    <hyperlink ref="H16" r:id="rId6" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
-    <hyperlink ref="H17" r:id="rId7" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
-    <hyperlink ref="H21" r:id="rId8" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
-    <hyperlink ref="H9" r:id="rId9" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
-    <hyperlink ref="H22" r:id="rId10" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
-    <hyperlink ref="H19" r:id="rId11" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
-    <hyperlink ref="H14" r:id="rId12" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
-    <hyperlink ref="H5" r:id="rId13" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
-    <hyperlink ref="H7" r:id="rId14" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
-    <hyperlink ref="H4" r:id="rId15" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
-    <hyperlink ref="H6" r:id="rId16" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
-    <hyperlink ref="H10" r:id="rId17" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
-    <hyperlink ref="H12" r:id="rId18" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
-    <hyperlink ref="H13" r:id="rId19" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
-    <hyperlink ref="H3" r:id="rId20" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
+    <hyperlink ref="H22" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
+    <hyperlink ref="H19" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
+    <hyperlink ref="H14" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
+    <hyperlink ref="H7" r:id="rId13" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
+    <hyperlink ref="H4" r:id="rId14" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
+    <hyperlink ref="H12" r:id="rId17" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H3" r:id="rId19" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
+    <hyperlink ref="H8" r:id="rId20" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main (3)\Motor-Controller-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0392D-E4C7-4609-8B95-D3EDA9272E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC9695-09D2-432F-9817-BA95971CC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>Part Number</t>
   </si>
@@ -229,9 +229,6 @@
     <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/EEE-HD1C472AM/9593462?s=N4IgTCBcDaIKIILQAkAiBGAwgFgOxgEEBZEAXQF8g</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>C3,C4,C11</t>
-  </si>
-  <si>
     <t>MAX15062BATA+TCT-ND</t>
   </si>
   <si>
@@ -289,21 +283,6 @@
     <t>Wirewound Inductor 670mOhm 1210 (3225 Metric)</t>
   </si>
   <si>
-    <t>445-173162-1-ND</t>
-  </si>
-  <si>
-    <t>1 µF ±10% 100V Ceramic Capacitor X7R Radial</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/tdk-corporation/FG16X7R2A105KNT06/5811767</t>
-  </si>
-  <si>
-    <t>C1,C7,C8</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
     <t>IRFS3306TRLPBFCT-ND</t>
   </si>
   <si>
@@ -311,6 +290,39 @@
   </si>
   <si>
     <t>https://www.infineon.com/dgdl/irfs3306pbf.pdf?fileId=5546d462533600a40153563682652165</t>
+  </si>
+  <si>
+    <t>C3,C4,C11,C12</t>
+  </si>
+  <si>
+    <t>C1,C7,C8,C10,C13</t>
+  </si>
+  <si>
+    <t>R1, R2,R7,R9</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>620-1355-ND</t>
+  </si>
+  <si>
+    <t>Current Sensor 150A 1 Channel Hall Effect, Open Loop Unidirectional 5-CB Formed Leads, PFF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/allegro-microsystems/ACS758KCB-150U-PFF-T/2415200</t>
+  </si>
+  <si>
+    <t>541-3.48KAACT-ND</t>
+  </si>
+  <si>
+    <t>3.48 kOhms ±1% 0.5W, 1/2W Chip Resistor 1210 (3225 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW12103K48FKEA/1177373</t>
   </si>
 </sst>
 </file>
@@ -914,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +972,7 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -978,124 +990,124 @@
         <v>7</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" ref="G2:G22" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G23" si="0">D2*E2</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" s="19">
-        <v>0.73</v>
+        <v>2.56</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="19">
-        <f>D3*E3</f>
-        <v>0.73</v>
+        <f t="shared" si="0"/>
+        <v>2.56</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="19">
-        <v>2.56</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="0"/>
-        <v>2.56</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="12">
+        <v>65</v>
+      </c>
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
-        <v>0.56999999999999995</v>
+      <c r="E5" s="21">
+        <v>0.49</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D6" s="20">
         <v>1</v>
       </c>
       <c r="E6" s="21">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="19">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
+        <f>D6*E6</f>
+        <v>0.25</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>57</v>
@@ -1120,122 +1132,124 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="21">
-        <v>2.58</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>10.32</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D9" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="21">
-        <v>1.64</v>
+        <v>2.58</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="0"/>
-        <v>1.64</v>
+        <v>10.32</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
       </c>
       <c r="E10" s="21">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="19">
-        <f>D10*E10</f>
-        <v>2.27</v>
+        <f t="shared" si="0"/>
+        <v>1.64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
       </c>
       <c r="E11" s="21">
-        <v>0.52</v>
+        <v>2.27</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="19">
         <f>D11*E11</f>
-        <v>0.52</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>2.27</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
@@ -1247,297 +1261,316 @@
         <v>7</v>
       </c>
       <c r="G12" s="19">
+        <f>D12*E12</f>
+        <v>0.52</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="D14" s="20">
+        <v>5</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19">
+        <f>D14*E14</f>
+        <v>1.75</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="20">
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12">
         <v>4</v>
       </c>
-      <c r="E13" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="19">
-        <f>D13*E13</f>
-        <v>1.4</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12">
-        <v>4</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="E15" s="19">
         <v>4.59</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="19">
         <v>1.43</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <v>9</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="19">
         <v>0.39</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="0"/>
         <v>3.5100000000000002</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="24">
         <v>0.54</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>2</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="24">
         <v>1.35</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="13" t="s">
+    <row r="21" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="24">
         <v>0.26</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="22" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>4</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E22" s="24">
         <v>0.41</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="F22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H22" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+    <row r="23" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D23" s="27">
         <v>1</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E23" s="28">
         <v>0.97</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="F23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H23" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="6" t="s">
+    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="7">
-        <f>SUM(G2:G22)</f>
-        <v>56.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
+      <c r="G24" s="7">
+        <f>SUM(G2:G23)</f>
+        <v>66.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1552,13 +1585,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -1586,29 +1619,36 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F23" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F24" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EC06BA25-5BBF-4256-803F-A9FDB457E9B1}"/>
-    <hyperlink ref="H20" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
-    <hyperlink ref="H15" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
-    <hyperlink ref="H16" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
-    <hyperlink ref="H17" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
-    <hyperlink ref="H21" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
-    <hyperlink ref="H19" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
-    <hyperlink ref="H14" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
+    <hyperlink ref="H21" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
+    <hyperlink ref="H16" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
+    <hyperlink ref="H17" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
+    <hyperlink ref="H18" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
+    <hyperlink ref="H22" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
+    <hyperlink ref="H20" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
+    <hyperlink ref="H4" r:id="rId12" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
     <hyperlink ref="H7" r:id="rId13" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
-    <hyperlink ref="H4" r:id="rId14" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
-    <hyperlink ref="H6" r:id="rId15" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
-    <hyperlink ref="H10" r:id="rId16" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
-    <hyperlink ref="H12" r:id="rId17" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
-    <hyperlink ref="H3" r:id="rId19" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
-    <hyperlink ref="H8" r:id="rId20" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
+    <hyperlink ref="H3" r:id="rId14" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
+    <hyperlink ref="H5" r:id="rId15" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
+    <hyperlink ref="H11" r:id="rId16" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
+    <hyperlink ref="H14" r:id="rId18" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
+    <hyperlink ref="H8" r:id="rId20" xr:uid="{D325CD71-F24D-4CDD-85C6-94E0C59EB11E}"/>
+    <hyperlink ref="H6" r:id="rId21" xr:uid="{787C7B41-E7CC-4FC2-B69C-F6314D61B6B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main (3)\Motor-Controller-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC9695-09D2-432F-9817-BA95971CC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC36F5E-1D09-4A15-AF83-F47EFACE1B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>Part Number</t>
   </si>
@@ -66,21 +66,12 @@
     <t>Schematic Annotation</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>399-17501-1-ND</t>
   </si>
   <si>
-    <t>±5% 50V Ceramic Capacitor X7R 1812 (4532 Metric)</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
   </si>
   <si>
     <t>JP1,JP2</t>
-  </si>
-  <si>
-    <t>R3,R4,R5,R6</t>
   </si>
   <si>
     <t>Thermal Interface Products Therm Jumper 30 mil 2512</t>
@@ -202,15 +190,6 @@
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/74650195R/6643984?s=N4IgTCBcDaIAQHYAsA2ArABgIwE40CUQBdAXyA</t>
   </si>
   <si>
-    <t xml:space="preserve">478-3988-1-ND </t>
-  </si>
-  <si>
-    <t>0.47 µF ±10% 250V Ceramic Capacitor X7R 1812 (4532 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/avx-corporation/1812PC474KAT1A/1144366?s=N4IgTCBcDaIIwA45gAoGEAsB2DBpAggCpz4gC6AvkA</t>
-  </si>
-  <si>
     <t>541-15.0KACCT-ND</t>
   </si>
   <si>
@@ -220,15 +199,6 @@
     <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW201015K0FKEF/1198590</t>
   </si>
   <si>
-    <t>PCE5246CT-ND</t>
-  </si>
-  <si>
-    <t>4700 µF 16 V Aluminum Electrolytic Capacitors Radial, Can - SMD - 5000 Hrs @ 105°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/EEE-HD1C472AM/9593462?s=N4IgTCBcDaIKIILQAkAiBGAwgFgOxgEEBZEAXQF8g</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -238,18 +208,12 @@
     <t>CAP CER 620PF 100V NP0 1210</t>
   </si>
   <si>
-    <t>Q1-Q8</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/avx-corporation/12101A621JAT2A/1605218?s=N4IgTCBcDaICwHYAcBaAjABgJwbelAcgCIgC6AvkA</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>MAX15062BATA+TCT-ND</t>
   </si>
   <si>
@@ -292,37 +256,37 @@
     <t>https://www.infineon.com/dgdl/irfs3306pbf.pdf?fileId=5546d462533600a40153563682652165</t>
   </si>
   <si>
-    <t>C3,C4,C11,C12</t>
-  </si>
-  <si>
-    <t>C1,C7,C8,C10,C13</t>
-  </si>
-  <si>
-    <t>R1, R2,R7,R9</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>620-1355-ND</t>
-  </si>
-  <si>
-    <t>Current Sensor 150A 1 Channel Hall Effect, Open Loop Unidirectional 5-CB Formed Leads, PFF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/allegro-microsystems/ACS758KCB-150U-PFF-T/2415200</t>
-  </si>
-  <si>
-    <t>541-3.48KAACT-ND</t>
-  </si>
-  <si>
-    <t>3.48 kOhms ±1% 0.5W, 1/2W Chip Resistor 1210 (3225 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW12103K48FKEA/1177373</t>
+    <t>565-4079-ND</t>
+  </si>
+  <si>
+    <t>2200 µF 50 V Aluminum Electrolytic Capacitors Radial, Can - 10000 Hrs @ 105°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/united-chemi-con/EKZN500ELL222MMN3S/4843889</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>Q1-Q4</t>
+  </si>
+  <si>
+    <t>C1,C2,C5,C8</t>
+  </si>
+  <si>
+    <t>R1,R2,R5,R6</t>
+  </si>
+  <si>
+    <t>J1,J2,J4,J5 Conn</t>
+  </si>
+  <si>
+    <t>C7,C10,C11,C12</t>
+  </si>
+  <si>
+    <t>0.1uF ±5% 50V Ceramic Capacitor X7R 1812 (4532 Metric)</t>
   </si>
 </sst>
 </file>
@@ -332,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,24 +329,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,71 +536,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,610 +928,549 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="12">
+    <row r="2" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="15">
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="16">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="19">
-        <f t="shared" ref="G2:G23" si="0">D2*E2</f>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16">
+        <f t="shared" ref="G2:G20" si="0">D2*E2</f>
         <v>4.3600000000000003</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="H2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="12">
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" si="0"/>
+        <v>7.84</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
-        <v>2.56</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="19">
-        <f t="shared" si="0"/>
-        <v>2.56</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="19">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="E4" s="18">
         <v>0.49</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="19">
-        <f>D6*E6</f>
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="H4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E5" s="18">
         <v>0.3</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="F5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="21">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="19">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E6" s="18">
         <v>2.58</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>10.32</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="H6" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E7" s="18">
         <v>1.64</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="F7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="H7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E8" s="18">
         <v>2.27</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="19">
-        <f>D11*E11</f>
+      <c r="F8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="16">
+        <f>D8*E8</f>
         <v>2.27</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="H8" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E9" s="18">
         <v>0.52</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19">
-        <f>D12*E12</f>
+      <c r="F9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16">
+        <f>D9*E9</f>
         <v>0.52</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E10" s="18">
         <v>0.52</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="16">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="20">
-        <v>5</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="H10" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18">
         <v>0.35</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="19">
-        <f>D14*E14</f>
-        <v>1.75</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="16">
+        <f>D11*E11</f>
+        <v>1.4</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="15">
         <v>4</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E12" s="16">
         <v>4.59</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="H12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="16">
+        <f>D13*E13</f>
+        <v>1.04</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E14" s="16">
         <v>1.43</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="D16" s="15">
         <v>9</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E16" s="16">
         <v>0.39</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="16">
         <f t="shared" si="0"/>
         <v>3.5100000000000002</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="H16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E17" s="23">
         <v>0.54</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="16">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="21">
         <v>2</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E18" s="23">
         <v>1.35</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="H18" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="21">
         <v>4</v>
       </c>
-      <c r="E21" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="19">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="13">
-        <v>4</v>
-      </c>
-      <c r="E22" s="24">
+      <c r="E19" s="23">
         <v>0.41</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="F19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="16">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="C20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="29">
         <v>1</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E20" s="30">
         <v>0.97</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="F20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="6" t="s">
+      <c r="H20" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="7">
-        <f>SUM(G2:G23)</f>
-        <v>66.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G21" s="7">
+        <f>SUM(G2:G20)</f>
+        <v>60.72999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
@@ -1591,7 +1488,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -1607,49 +1504,29 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:F24" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F21" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EC06BA25-5BBF-4256-803F-A9FDB457E9B1}"/>
-    <hyperlink ref="H21" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
-    <hyperlink ref="H19" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
-    <hyperlink ref="H16" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
-    <hyperlink ref="H17" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
-    <hyperlink ref="H18" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
-    <hyperlink ref="H22" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
-    <hyperlink ref="H23" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
-    <hyperlink ref="H20" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
-    <hyperlink ref="H15" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
-    <hyperlink ref="H4" r:id="rId12" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
-    <hyperlink ref="H7" r:id="rId13" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
-    <hyperlink ref="H3" r:id="rId14" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
-    <hyperlink ref="H5" r:id="rId15" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
-    <hyperlink ref="H11" r:id="rId16" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
-    <hyperlink ref="H13" r:id="rId17" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
-    <hyperlink ref="H14" r:id="rId18" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
-    <hyperlink ref="H9" r:id="rId19" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
-    <hyperlink ref="H8" r:id="rId20" xr:uid="{D325CD71-F24D-4CDD-85C6-94E0C59EB11E}"/>
-    <hyperlink ref="H6" r:id="rId21" xr:uid="{787C7B41-E7CC-4FC2-B69C-F6314D61B6B8}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
+    <hyperlink ref="H19" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
+    <hyperlink ref="H20" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
+    <hyperlink ref="H10" r:id="rId15" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
+    <hyperlink ref="H11" r:id="rId16" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H6" r:id="rId17" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
+    <hyperlink ref="H3" r:id="rId18" xr:uid="{C5C35826-08E2-43C8-94F0-61472754566F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Motor-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0392D-E4C7-4609-8B95-D3EDA9272E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A0367-DDCF-46E8-B330-E54FFD5C04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8115" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Motor-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A0367-DDCF-46E8-B330-E54FFD5C04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA0BDE-6622-4559-83D0-3CF99E667662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8115" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48915" yWindow="4740" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Part Number</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Schematic Annotation</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>399-17501-1-ND</t>
   </si>
   <si>
-    <t>±5% 50V Ceramic Capacitor X7R 1812 (4532 Metric)</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t>JP1,JP2</t>
-  </si>
-  <si>
-    <t>R3,R4,R5,R6</t>
   </si>
   <si>
     <t>Thermal Interface Products Therm Jumper 30 mil 2512</t>
@@ -202,15 +193,6 @@
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/74650195R/6643984?s=N4IgTCBcDaIAQHYAsA2ArABgIwE40CUQBdAXyA</t>
   </si>
   <si>
-    <t xml:space="preserve">478-3988-1-ND </t>
-  </si>
-  <si>
-    <t>0.47 µF ±10% 250V Ceramic Capacitor X7R 1812 (4532 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/avx-corporation/1812PC474KAT1A/1144366?s=N4IgTCBcDaIIwA45gAoGEAsB2DBpAggCpz4gC6AvkA</t>
-  </si>
-  <si>
     <t>541-15.0KACCT-ND</t>
   </si>
   <si>
@@ -220,18 +202,6 @@
     <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW201015K0FKEF/1198590</t>
   </si>
   <si>
-    <t>PCE5246CT-ND</t>
-  </si>
-  <si>
-    <t>4700 µF 16 V Aluminum Electrolytic Capacitors Radial, Can - SMD - 5000 Hrs @ 105°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/EEE-HD1C472AM/9593462?s=N4IgTCBcDaIKIILQAkAiBGAwgFgOxgEEBZEAXQF8g</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -241,39 +211,12 @@
     <t>CAP CER 620PF 100V NP0 1210</t>
   </si>
   <si>
-    <t>Q1-Q8</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/avx-corporation/12101A621JAT2A/1605218?s=N4IgTCBcDaICwHYAcBaAjABgJwbelAcgCIgC6AvkA</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3,C4,C11</t>
-  </si>
-  <si>
-    <t>MAX15062BATA+TCT-ND</t>
-  </si>
-  <si>
-    <t>Buck Switching Regulator IC Positive Fixed 5V 1 Output 300mA 8-WFDFN</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/maxim-integrated/MAX15062BATA-T/2591308</t>
-  </si>
-  <si>
-    <t>732-7708-1-ND</t>
-  </si>
-  <si>
-    <t>10 µF ±10% 10V Ceramic Capacitor X7R 1210 (3225 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012209005/5453563</t>
-  </si>
-  <si>
     <t>2873-C1210X105K101TCT-ND</t>
   </si>
   <si>
@@ -283,12 +226,6 @@
     <t>https://www.digikey.com/en/products/detail/holy-stone-enterprise-co-ltd/C1210X105K101T/13279995</t>
   </si>
   <si>
-    <t>399-17722-1-ND</t>
-  </si>
-  <si>
-    <t>Wirewound Inductor 670mOhm 1210 (3225 Metric)</t>
-  </si>
-  <si>
     <t>445-173162-1-ND</t>
   </si>
   <si>
@@ -298,12 +235,6 @@
     <t>https://www.digikey.com/en/products/detail/tdk-corporation/FG16X7R2A105KNT06/5811767</t>
   </si>
   <si>
-    <t>C1,C7,C8</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
     <t>IRFS3306TRLPBFCT-ND</t>
   </si>
   <si>
@@ -311,6 +242,66 @@
   </si>
   <si>
     <t>https://www.infineon.com/dgdl/irfs3306pbf.pdf?fileId=5546d462533600a40153563682652165</t>
+  </si>
+  <si>
+    <t>175-MAX17640CATA+-ND</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Adjustable 0.9V 1 Output 400mA 8-WDFN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/maxim-integrated/MAX17640CATA/14287861</t>
+  </si>
+  <si>
+    <t>Q1-Q4</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>R1,R2,R5,R6</t>
+  </si>
+  <si>
+    <t>±5% 50V Ceramic Capacitor X7R 1812 (4532 Metric) 0.1uF</t>
+  </si>
+  <si>
+    <t>C7,C10,C11,C12</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C1,C2,C5</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>587-3070-1-ND</t>
+  </si>
+  <si>
+    <t>68 µH Unshielded Wirewound Inductor 410 mA 1.3Ohm Max 1210 (3225 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/CBC3225T680KR/587-3070-1-ND/2763495?itemSeq=371798502</t>
+  </si>
+  <si>
+    <t>1276-CL32B226MOJVPNECT-ND</t>
+  </si>
+  <si>
+    <t>22 µF ±20% 16V Ceramic Capacitor X7R 1210 (3225 Metric)</t>
+  </si>
+  <si>
+    <t>CL32B226MOJVPNE Samsung Electro-Mechanics | Capacitors | DigiKey</t>
+  </si>
+  <si>
+    <t>1189-1505-ND</t>
+  </si>
+  <si>
+    <t>2200 µF 63 V Aluminum Electrolytic Capacitors Radial, Can - 10000 Hrs @ 105°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rubycon/63ZLH2200MEFC18X40/3134461</t>
   </si>
 </sst>
 </file>
@@ -914,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,13 +951,13 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D2" s="12">
         <v>4</v>
@@ -978,22 +969,22 @@
         <v>7</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" ref="G2:G22" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G21" si="0">D2*E2</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -1009,529 +1000,510 @@
         <v>0.73</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D4" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="19">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="0"/>
-        <v>2.56</v>
+        <v>5.84</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="12">
+        <v>56</v>
+      </c>
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
-        <v>0.56999999999999995</v>
+      <c r="E5" s="21">
+        <v>0.49</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D6" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="21">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D7" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="21">
-        <v>0.3</v>
+        <v>2.58</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>10.32</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D8" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="21">
-        <v>2.58</v>
+        <v>1.64</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>10.32</v>
+        <v>1.64</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
       </c>
       <c r="E9" s="21">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="19">
+        <f>D9*E9</f>
+        <v>1.65</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="19">
+        <f>D10*E10</f>
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="19">
+        <f>D12*E12</f>
+        <v>1.4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4.59</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>18.36</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1.43</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="0"/>
+        <v>1.43</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.39</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5100000000000002</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0.54</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1.35</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13">
+        <v>4</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="13">
+        <v>4</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.41</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="H20" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="21">
-        <v>2.27</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="19">
-        <f>D10*E10</f>
-        <v>2.27</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="19">
-        <f>D11*E11</f>
-        <v>0.52</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.52</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="20">
-        <v>4</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="19">
-        <f>D13*E13</f>
-        <v>1.4</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12">
-        <v>4</v>
-      </c>
-      <c r="E14" s="19">
-        <v>4.59</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="19">
-        <f t="shared" si="0"/>
-        <v>18.36</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1.43</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19">
-        <f t="shared" si="0"/>
-        <v>1.43</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="19">
-        <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12">
-        <v>9</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0.39</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" si="0"/>
-        <v>3.5100000000000002</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0.54</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="19">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2</v>
-      </c>
-      <c r="E19" s="24">
-        <v>1.35</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="13">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0.26</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="19">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="13">
-        <v>4</v>
-      </c>
-      <c r="E21" s="24">
-        <v>0.41</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="28">
+        <v>0.97</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="0"/>
-        <v>1.64</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="27">
-        <v>1</v>
-      </c>
-      <c r="E22" s="28">
         <v>0.97</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="6" t="s">
+      <c r="H21" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="7">
-        <f>SUM(G2:G22)</f>
-        <v>56.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G22" s="7">
+        <f>SUM(G2:G21)</f>
+        <v>58.519999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1546,13 +1518,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
@@ -1580,35 +1552,29 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:F23" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F22" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EC06BA25-5BBF-4256-803F-A9FDB457E9B1}"/>
-    <hyperlink ref="H20" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
-    <hyperlink ref="H15" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
-    <hyperlink ref="H16" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
-    <hyperlink ref="H17" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
-    <hyperlink ref="H21" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
-    <hyperlink ref="H19" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
-    <hyperlink ref="H14" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{8CAB2C01-8D57-4F1A-A16C-ED1684128666}"/>
-    <hyperlink ref="H7" r:id="rId13" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
-    <hyperlink ref="H4" r:id="rId14" xr:uid="{2BE8EB22-9255-4BDC-ACF3-9DC6D095A159}"/>
-    <hyperlink ref="H6" r:id="rId15" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
-    <hyperlink ref="H10" r:id="rId16" xr:uid="{E12F43D3-7B18-48D2-B45D-871208E6E28C}"/>
-    <hyperlink ref="H12" r:id="rId17" xr:uid="{2D6C0A81-1EC9-4FA5-BCBA-23C407663010}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
-    <hyperlink ref="H3" r:id="rId19" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
-    <hyperlink ref="H8" r:id="rId20" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
+    <hyperlink ref="H20" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
+    <hyperlink ref="H21" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
+    <hyperlink ref="H6" r:id="rId12" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
+    <hyperlink ref="H5" r:id="rId13" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
+    <hyperlink ref="H12" r:id="rId14" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H3" r:id="rId15" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
+    <hyperlink ref="H9" r:id="rId17" xr:uid="{0FC6BF4E-B3F7-4B10-8F3D-F4990499FCDC}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{5B927924-9F42-4FC1-A54D-3FA96B6BE0F8}"/>
+    <hyperlink ref="H11" r:id="rId19" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B226MOJVPNE/11487778" xr:uid="{261B60BF-E7B9-412E-ADE9-39C9C22F5694}"/>
+    <hyperlink ref="H4" r:id="rId20" xr:uid="{A3B9EFD3-1AE1-432D-A046-EB69FFDD8413}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Motor-Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\Motor-Controller-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA0BDE-6622-4559-83D0-3CF99E667662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFE6AA-F6AA-4E83-882B-F2E0679AEB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48915" yWindow="4740" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Part Number</t>
   </si>
@@ -302,6 +302,42 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/rubycon/63ZLH2200MEFC18X40/3134461</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>1080-1419-1-ND</t>
+  </si>
+  <si>
+    <t>Green 570nm LED Indication - Discrete 2.1V 1206 (3216 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/QTLP650D4TR/1080-1419-1-ND/2676153?itemSeq=373167869</t>
+  </si>
+  <si>
+    <t>311-150LJCT-ND</t>
+  </si>
+  <si>
+    <t>150 Ohms ±1% 0.25W, 1/4W Chip Resistor 1206 (3216 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/AC1206FR-07150RL/311-150LJCT-ND/2828161?itemSeq=373168587</t>
+  </si>
+  <si>
+    <t>R7,R8</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>1516-QBLP601-RYCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/qt-brightek-qtb/QBLP601-RY/10322678</t>
+  </si>
+  <si>
+    <t>Red, Yellow 630nm Red, 591nm Yellow LED Indication - Discrete 2V Red, 2V Yellow 0603 (1608 Metric)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,6 +660,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" ref="G2:G21" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G24" si="0">D2*E2</f>
         <v>4.3600000000000003</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1086,439 +1123,502 @@
     </row>
     <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D7" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="21">
-        <v>2.58</v>
+        <v>0.37</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="0"/>
-        <v>10.32</v>
+        <v>0.37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
       </c>
       <c r="E8" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19">
+        <f>D8*E8</f>
+        <v>0.43</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4</v>
+      </c>
+      <c r="E10" s="21">
+        <v>2.58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="0"/>
+        <v>10.32</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
         <v>1.64</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E12" s="21">
         <v>1.65</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19">
-        <f>D9*E9</f>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="19">
+        <f>D12*E12</f>
         <v>1.65</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E13" s="21">
         <v>0.3</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="19">
-        <f>D10*E10</f>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="19">
+        <f>D13*E13</f>
         <v>0.3</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E14" s="21">
         <v>0.71</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H14" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D15" s="20">
         <v>4</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E15" s="21">
         <v>0.35</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19">
-        <f>D12*E12</f>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19">
+        <f>D15*E15</f>
         <v>1.4</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D16" s="12">
         <v>4</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E16" s="19">
         <v>4.59</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>18.36</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E17" s="19">
         <v>1.43</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D18" s="12">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E18" s="19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D19" s="12">
         <v>9</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E19" s="19">
         <v>0.39</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="0"/>
         <v>3.5100000000000002</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E20" s="24">
         <v>0.54</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E21" s="24">
         <v>1.35</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="13" t="s">
+    <row r="22" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D22" s="13">
         <v>4</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E22" s="24">
         <v>0.26</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="F22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="23" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D23" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E23" s="24">
         <v>0.41</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H23" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+    <row r="24" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D24" s="27">
         <v>1</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E24" s="28">
         <v>0.97</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="F24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="19">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H24" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="6" t="s">
+    <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="7">
-        <f>SUM(G2:G21)</f>
-        <v>58.519999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
+      <c r="G25" s="7">
+        <f>SUM(G2:G24)</f>
+        <v>59.519999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
@@ -1536,7 +1636,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
@@ -1552,30 +1652,52 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F22" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F25" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EC06BA25-5BBF-4256-803F-A9FDB457E9B1}"/>
-    <hyperlink ref="H19" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
-    <hyperlink ref="H17" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
-    <hyperlink ref="H15" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
-    <hyperlink ref="H16" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
-    <hyperlink ref="H20" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
-    <hyperlink ref="H8" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
-    <hyperlink ref="H21" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
-    <hyperlink ref="H18" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
+    <hyperlink ref="H22" r:id="rId2" xr:uid="{AC81996F-D568-4668-86FA-D435AC539FA0}"/>
+    <hyperlink ref="H20" r:id="rId3" xr:uid="{824F3F0F-8998-4AED-93DD-622B79B65A28}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{C7647B1F-5AC7-476C-92B6-E61230E0D1CD}"/>
+    <hyperlink ref="H18" r:id="rId5" xr:uid="{6D4EA0A2-CFDF-4E3D-9F0E-96E89FBB0A78}"/>
+    <hyperlink ref="H19" r:id="rId6" xr:uid="{915E4EB1-02CF-4478-8AAD-416A6829D2AF}"/>
+    <hyperlink ref="H23" r:id="rId7" xr:uid="{BFC3512A-DC63-45F2-9FF7-B4E26C9381EA}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{EC517467-96DF-4B7B-AA7B-7290FF844D5E}"/>
+    <hyperlink ref="H24" r:id="rId9" xr:uid="{A8BA41E3-0DB9-477E-9511-169BFBF38909}"/>
+    <hyperlink ref="H21" r:id="rId10" xr:uid="{9B76D1D7-DAF2-447F-AF48-0C187821D5C5}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{B98F2375-85D1-43B3-B952-25B29C8270AC}"/>
     <hyperlink ref="H6" r:id="rId12" xr:uid="{6E7AD1B6-E187-452B-A2D5-F611418D3F75}"/>
     <hyperlink ref="H5" r:id="rId13" xr:uid="{BC4186EC-63DB-4284-A0BA-CD20D91CD4DD}"/>
-    <hyperlink ref="H12" r:id="rId14" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
     <hyperlink ref="H3" r:id="rId15" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
-    <hyperlink ref="H7" r:id="rId16" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
-    <hyperlink ref="H9" r:id="rId17" xr:uid="{0FC6BF4E-B3F7-4B10-8F3D-F4990499FCDC}"/>
-    <hyperlink ref="H10" r:id="rId18" xr:uid="{5B927924-9F42-4FC1-A54D-3FA96B6BE0F8}"/>
-    <hyperlink ref="H11" r:id="rId19" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B226MOJVPNE/11487778" xr:uid="{261B60BF-E7B9-412E-ADE9-39C9C22F5694}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
+    <hyperlink ref="H12" r:id="rId17" xr:uid="{0FC6BF4E-B3F7-4B10-8F3D-F4990499FCDC}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{5B927924-9F42-4FC1-A54D-3FA96B6BE0F8}"/>
+    <hyperlink ref="H14" r:id="rId19" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B226MOJVPNE/11487778" xr:uid="{261B60BF-E7B9-412E-ADE9-39C9C22F5694}"/>
     <hyperlink ref="H4" r:id="rId20" xr:uid="{A3B9EFD3-1AE1-432D-A046-EB69FFDD8413}"/>
+    <hyperlink ref="H7" r:id="rId21" xr:uid="{A8C64BFE-52FE-4913-BF99-4ABD728FEB84}"/>
+    <hyperlink ref="H9" r:id="rId22" xr:uid="{866C3AA0-47E7-4D34-B47F-E2C9626259D5}"/>
+    <hyperlink ref="H8" r:id="rId23" xr:uid="{42BC71AF-2E36-45CB-9A55-C1B1ECA63DD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Buck 5V BOM.xlsx
+++ b/Buck 5V BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\Motor-Controller-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFE6AA-F6AA-4E83-882B-F2E0679AEB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45562C58-49EA-4600-B00A-EBF91448B0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -244,15 +244,6 @@
     <t>https://www.infineon.com/dgdl/irfs3306pbf.pdf?fileId=5546d462533600a40153563682652165</t>
   </si>
   <si>
-    <t>175-MAX17640CATA+-ND</t>
-  </si>
-  <si>
-    <t>Buck Switching Regulator IC Positive Adjustable 0.9V 1 Output 400mA 8-WDFN</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/maxim-integrated/MAX17640CATA/14287861</t>
-  </si>
-  <si>
     <t>Q1-Q4</t>
   </si>
   <si>
@@ -338,6 +329,15 @@
   </si>
   <si>
     <t>Red, Yellow 630nm Red, 591nm Yellow LED Indication - Discrete 2V Red, 2V Yellow 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>175-MAX17640BATA+-ND</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Fixed 5V 1 Output 400mA 8-WFDFN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/maxim-integrated/MAX17640BATA/14287859?s=N4IgTCBcDaIIwHYCsBaAsgQQBqIGwBYAGAIQwBUMBqFAOQBEQBdAXyA</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,13 +988,13 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12">
         <v>4</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>62</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="12">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>5.84</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>51</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="20">
         <v>1</v>
@@ -1145,18 +1145,18 @@
         <v>0.37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
@@ -1172,18 +1172,18 @@
         <v>0.43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
@@ -1199,12 +1199,12 @@
         <v>0.2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>65</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1.65</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
@@ -1289,10 +1289,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0.3</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
@@ -1316,10 +1316,10 @@
         <v>54</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="20">
         <v>1</v>
@@ -1335,12 +1335,12 @@
         <v>0.71</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>59</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="23" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>40</v>
@@ -1689,13 +1689,13 @@
     <hyperlink ref="H15" r:id="rId14" xr:uid="{28A63484-4740-4D85-A1B3-E119463E6BD6}"/>
     <hyperlink ref="H3" r:id="rId15" xr:uid="{FD5D0C32-AD08-46C3-BC7F-C3B51DF6FD14}"/>
     <hyperlink ref="H10" r:id="rId16" xr:uid="{E32EE017-42E4-4CF2-9F0F-93BCABEB36A9}"/>
-    <hyperlink ref="H12" r:id="rId17" xr:uid="{0FC6BF4E-B3F7-4B10-8F3D-F4990499FCDC}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{5B927924-9F42-4FC1-A54D-3FA96B6BE0F8}"/>
-    <hyperlink ref="H14" r:id="rId19" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B226MOJVPNE/11487778" xr:uid="{261B60BF-E7B9-412E-ADE9-39C9C22F5694}"/>
-    <hyperlink ref="H4" r:id="rId20" xr:uid="{A3B9EFD3-1AE1-432D-A046-EB69FFDD8413}"/>
-    <hyperlink ref="H7" r:id="rId21" xr:uid="{A8C64BFE-52FE-4913-BF99-4ABD728FEB84}"/>
-    <hyperlink ref="H9" r:id="rId22" xr:uid="{866C3AA0-47E7-4D34-B47F-E2C9626259D5}"/>
-    <hyperlink ref="H8" r:id="rId23" xr:uid="{42BC71AF-2E36-45CB-9A55-C1B1ECA63DD6}"/>
+    <hyperlink ref="H13" r:id="rId17" xr:uid="{5B927924-9F42-4FC1-A54D-3FA96B6BE0F8}"/>
+    <hyperlink ref="H14" r:id="rId18" display="https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B226MOJVPNE/11487778" xr:uid="{261B60BF-E7B9-412E-ADE9-39C9C22F5694}"/>
+    <hyperlink ref="H4" r:id="rId19" xr:uid="{A3B9EFD3-1AE1-432D-A046-EB69FFDD8413}"/>
+    <hyperlink ref="H7" r:id="rId20" xr:uid="{A8C64BFE-52FE-4913-BF99-4ABD728FEB84}"/>
+    <hyperlink ref="H9" r:id="rId21" xr:uid="{866C3AA0-47E7-4D34-B47F-E2C9626259D5}"/>
+    <hyperlink ref="H8" r:id="rId22" xr:uid="{42BC71AF-2E36-45CB-9A55-C1B1ECA63DD6}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{10D4338B-26FF-4D3A-B8B8-B02388C4D37D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
